--- a/uploadForm.xlsx
+++ b/uploadForm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="D17" s="12">
         <f>SUMPRODUCT('Product Details'!D3:D100, 'Product Details'!Q3:Q100)</f>
-        <v>210000000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="18" spans="3:4" ht="15.75">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="D18" s="12">
         <f>SUMPRODUCT('Product Details'!D3:D100, 'Product Details'!P3:P100)</f>
-        <v>1200</v>
+        <v>800</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="15.75">
@@ -3112,7 +3112,7 @@
         <v>27</v>
       </c>
       <c r="D19" s="12">
-        <v>500</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3133,7 +3133,7 @@
   </sheetPr>
   <dimension ref="A1:AA100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
@@ -3309,10 +3309,10 @@
       <c r="N3" s="27"/>
       <c r="O3" s="28"/>
       <c r="P3" s="29">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="29">
-        <v>500000</v>
+        <v>500</v>
       </c>
       <c r="R3" s="30"/>
       <c r="S3" s="30"/>
@@ -3324,7 +3324,7 @@
       <c r="Y3" s="30"/>
       <c r="Z3" s="30"/>
       <c r="AA3" s="31">
-        <v>7454</v>
+        <v>7535</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
@@ -3362,10 +3362,10 @@
       <c r="N4" s="32"/>
       <c r="O4" s="28"/>
       <c r="P4" s="29">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q4" s="29">
-        <v>10000000</v>
+        <v>500</v>
       </c>
       <c r="R4" s="30"/>
       <c r="S4" s="30"/>
@@ -3377,7 +3377,7 @@
       <c r="Y4" s="30"/>
       <c r="Z4" s="30"/>
       <c r="AA4" s="31">
-        <v>7455</v>
+        <v>7536</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1">
@@ -5781,7 +5781,7 @@
       <c r="AA100" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Ry7qiy08e9g2q5jsk+gxAIngyfpGvnNBcnNCF+W/sQGkcYbaOUkc1RnfvyYm924BEn6jgMFnMdKqP8Ub+fDigA==" saltValue="hw4oaZoX2Yacg3kWd2KqIQ==" spinCount="100000" sheet="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4JRtDs+2X4Tj2KteLTenGcnX+y3P6nY3EHDfKRV3F4p2DOFFUlmbuE1dqVTwooKlg6wS0/4beMvlMbFj93dlog==" saltValue="zsaOiTU3XnpkqJwz8WEt7w==" spinCount="100000" sheet="1"/>
   <conditionalFormatting sqref="A1:O1">
     <cfRule type="containsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(A1))=0</formula>
